--- a/1. Document/Design/LayoutDesign/JOBMARKET_LayoutDesign.xlsx
+++ b/1. Document/Design/LayoutDesign/JOBMARKET_LayoutDesign.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="359"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="359" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="Đăng ký" sheetId="3" r:id="rId2"/>
     <sheet name="Đăng việc" sheetId="4" r:id="rId3"/>
     <sheet name="Tìm việc" sheetId="5" r:id="rId4"/>
+    <sheet name="Chi tiết việc" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,8 +53,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -62,15 +66,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFADDDA"/>
+      <color rgb="FFF4A39A"/>
+      <color rgb="FF11C1FF"/>
+      <color rgb="FFFEF5F4"/>
+      <color rgb="FFABDC0E"/>
       <color rgb="FFEA5143"/>
-      <color rgb="FFFAD6D2"/>
-      <color rgb="FFF0877C"/>
-      <color rgb="FFDD2C19"/>
-      <color rgb="FFFADDDA"/>
-      <color rgb="FFE54F40"/>
-      <color rgb="FF7A2620"/>
-      <color rgb="FFC94135"/>
-      <color rgb="FFC99BD5"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFBBF010"/>
+      <color rgb="FF8FB52F"/>
+      <color rgb="FF7D5AEC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -95,7 +100,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -107,7 +112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="99060" y="175260"/>
-          <a:ext cx="10683240" cy="15369540"/>
+          <a:ext cx="10289791" cy="15215631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -633,13 +638,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>106681</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>7546</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -664,8 +669,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="1394460"/>
-          <a:ext cx="10675620" cy="3230880"/>
+          <a:off x="106681" y="1381785"/>
+          <a:ext cx="10289716" cy="3198288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,7 +688,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>15090</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -694,8 +699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="1394460"/>
-          <a:ext cx="10675620" cy="3230880"/>
+          <a:off x="106680" y="1381785"/>
+          <a:ext cx="10297261" cy="3198288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,7 +750,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>22634</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -756,8 +761,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="182880"/>
-          <a:ext cx="10683240" cy="624840"/>
+          <a:off x="106680" y="181069"/>
+          <a:ext cx="10304805" cy="619408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1106,8 +1111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1213089" y="1479034"/>
-          <a:ext cx="7961165" cy="491679"/>
+          <a:off x="1207672" y="1515403"/>
+          <a:ext cx="7885333" cy="500771"/>
           <a:chOff x="1219200" y="1059180"/>
           <a:chExt cx="7940040" cy="495300"/>
         </a:xfrm>
@@ -1164,7 +1169,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:t>Nhập nội dung việc cần tìm</a:t>
+              <a:t>      Nhập nội dung việc cần tìm</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1600">
               <a:solidFill>
@@ -1699,8 +1704,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1252698" y="5607339"/>
-          <a:ext cx="2566355" cy="2043292"/>
+          <a:off x="1241865" y="5743722"/>
+          <a:ext cx="2544689" cy="2097844"/>
           <a:chOff x="1249680" y="5661660"/>
           <a:chExt cx="2560320" cy="2065020"/>
         </a:xfrm>
@@ -2624,8 +2629,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6614009" y="5607339"/>
-          <a:ext cx="2575485" cy="2043292"/>
+          <a:off x="6559843" y="5743722"/>
+          <a:ext cx="2548402" cy="2097844"/>
           <a:chOff x="1242060" y="5661660"/>
           <a:chExt cx="2567940" cy="2065020"/>
         </a:xfrm>
@@ -3549,8 +3554,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3937163" y="5607339"/>
-          <a:ext cx="2566356" cy="2043292"/>
+          <a:off x="3904664" y="5743722"/>
+          <a:ext cx="2544689" cy="2097844"/>
           <a:chOff x="1249680" y="5661660"/>
           <a:chExt cx="2560320" cy="2065020"/>
         </a:xfrm>
@@ -6098,7 +6103,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -6109,8 +6114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="99060" y="12733020"/>
-          <a:ext cx="10683240" cy="1897380"/>
+          <a:off x="99060" y="13849838"/>
+          <a:ext cx="10197709" cy="1927470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6156,6 +6161,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>105623</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>286692</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1327841" y="1637168"/>
+          <a:ext cx="181069" cy="181069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6164,13 +6213,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>113169</xdr:colOff>
+      <xdr:colOff>145827</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>433209</xdr:colOff>
+      <xdr:colOff>32658</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>45267</xdr:rowOff>
     </xdr:to>
@@ -6181,8 +6230,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="113169" y="181070"/>
-          <a:ext cx="10708891" cy="6201623"/>
+          <a:off x="145827" y="185058"/>
+          <a:ext cx="10250031" cy="6337209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6234,7 +6283,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -6245,8 +6294,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="182880"/>
-          <a:ext cx="10683240" cy="624840"/>
+          <a:off x="106680" y="185057"/>
+          <a:ext cx="10256520" cy="631372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7255,7 +7304,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>433209</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>45267</xdr:rowOff>
     </xdr:to>
@@ -7266,8 +7315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="113169" y="185058"/>
-          <a:ext cx="10683240" cy="6337209"/>
+          <a:off x="113169" y="6847115"/>
+          <a:ext cx="10250031" cy="6337209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7319,7 +7368,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>10886</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -7330,8 +7379,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="185057"/>
-          <a:ext cx="10683240" cy="631372"/>
+          <a:off x="106680" y="6847114"/>
+          <a:ext cx="10267406" cy="631372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8226,7 +8275,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>433209</xdr:colOff>
+      <xdr:colOff>10886</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>45267</xdr:rowOff>
     </xdr:to>
@@ -8237,8 +8286,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="113169" y="6847115"/>
-          <a:ext cx="10683240" cy="6337209"/>
+          <a:off x="113169" y="20171230"/>
+          <a:ext cx="10260917" cy="6337208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8290,7 +8339,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -8301,8 +8350,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="6847114"/>
-          <a:ext cx="10683240" cy="631372"/>
+          <a:off x="106680" y="20171229"/>
+          <a:ext cx="10256520" cy="631371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8361,8 +8410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2225040" y="6969034"/>
-          <a:ext cx="1348740" cy="370115"/>
+          <a:off x="2225040" y="20293149"/>
+          <a:ext cx="1348740" cy="370114"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8772,879 +8821,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>141405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>498803</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>9160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="Rounded Rectangle 130"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2177143" y="9209205"/>
-          <a:ext cx="2588860" cy="422926"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7576"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FADDDA"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>112713</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>158432</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>22633</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="Rectangle 131"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4989513" y="8882744"/>
-          <a:ext cx="45719" cy="3723775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="EA5143"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>248971</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>98080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>422495</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>22633</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="TextBox 132"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5125771" y="8795766"/>
-          <a:ext cx="3831124" cy="3625696"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Suspendisse tristique pellentesque odio, vitae maximus neque pretium eget. Pellentesque fermentum libero a orci congue dapibus ac nec dui. Vivamus facilisis, nibh in euismod feugiat, odio ipsum feugiat lectus, id pharetra ante leo sit amet est. Sed bibendum lectus in dignissim hendrerit. Proin finibus tempus purus, nec commodo lorem consequat non. Quisque purus nulla, tincidunt a metus malesuada, dapibus tincidunt felis. Nullam et erat id quam semper pellentesque. Donec commodo consequat sem. Integer velit arcu, vestibulum eu facilisis eget, euismod vitae urna.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:latin typeface="+mj-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>287339</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>169860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504622</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>160807</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="TextBox 133"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2116139" y="8867546"/>
-          <a:ext cx="2655683" cy="361061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Nhập</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> mã code OTP</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:latin typeface="+mj-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>239700</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>162529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>399721</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>177769</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="Rectangle 134"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2678100" y="12191243"/>
-          <a:ext cx="1379221" cy="385355"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E54F40"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:latin typeface="+mj-lt"/>
-            </a:rPr>
-            <a:t>TIẾP THEO &gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:latin typeface="+mj-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>522514</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>90790</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2079172" cy="2103770"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="136" name="Picture 135" descr="Káº¿t quáº£ hÃ¬nh áº£nh cho phone message icon"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2351314" y="9713761"/>
-          <a:ext cx="2079172" cy="2103770"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>113169</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>433209</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>45267</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="Rectangle 136"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="113169" y="6847115"/>
-          <a:ext cx="10683240" cy="6337209"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="Rectangle 137"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="106680" y="6847114"/>
-          <a:ext cx="10683240" cy="631372"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E54F40"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="Rounded Rectangle 138"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2225040" y="6969034"/>
-          <a:ext cx="1348740" cy="370115"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="F0877C"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Đăng</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> việc</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="Rounded Rectangle 139"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3756660" y="6976654"/>
-          <a:ext cx="1348740" cy="370115"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="DD2C19"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Tìm</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> việc</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="TextBox 140"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7056120" y="7055031"/>
-          <a:ext cx="1287780" cy="329838"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Hỗ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> trợ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="TextBox 141"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7848600" y="7047411"/>
-          <a:ext cx="1737360" cy="329838"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Đăng</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> nhập | Đăng ký</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>596020</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>98078</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>580931</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>22633</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="Rectangle 142"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1205620" y="7500364"/>
-          <a:ext cx="7909711" cy="5661326"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>221055</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>109395</xdr:rowOff>
@@ -9662,8 +8838,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2049855" y="7881795"/>
-          <a:ext cx="3760960" cy="619300"/>
+          <a:off x="2049855" y="21205909"/>
+          <a:ext cx="3760960" cy="619301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9723,15 +8899,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>119633</xdr:rowOff>
+      <xdr:rowOff>130518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>498803</xdr:colOff>
+      <xdr:colOff>455260</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>172445</xdr:rowOff>
+      <xdr:rowOff>183330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9740,7 +8916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2177143" y="22511547"/>
+          <a:off x="2133600" y="22522432"/>
           <a:ext cx="2588860" cy="422927"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9814,15 +8990,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>287339</xdr:colOff>
+      <xdr:colOff>243797</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>148088</xdr:rowOff>
+      <xdr:rowOff>115430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>504622</xdr:colOff>
+      <xdr:colOff>461080</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>139035</xdr:rowOff>
+      <xdr:rowOff>106377</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9831,7 +9007,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2116139" y="22169888"/>
+          <a:off x="2072597" y="22137230"/>
           <a:ext cx="2655683" cy="361061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9909,16 +9085,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>490072</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>86328</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>272358</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>75442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>40493</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>101568</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>432379</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>90682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9927,8 +9103,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6586072" y="18777099"/>
-          <a:ext cx="1379221" cy="385355"/>
+          <a:off x="5149158" y="25613328"/>
+          <a:ext cx="1379221" cy="385354"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10151,7 +9327,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>433209</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>45267</xdr:rowOff>
     </xdr:to>
@@ -10162,8 +9338,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="113169" y="6847115"/>
-          <a:ext cx="10683240" cy="6337209"/>
+          <a:off x="113169" y="13509172"/>
+          <a:ext cx="10250031" cy="6337209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10215,7 +9391,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -10226,8 +9402,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="6847114"/>
-          <a:ext cx="10683240" cy="631372"/>
+          <a:off x="106680" y="13509171"/>
+          <a:ext cx="10256520" cy="631372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11231,16 +10407,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>119743</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>87084</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>279764</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>102324</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>62050</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>91438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11249,7 +10425,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4996543" y="25439913"/>
+          <a:off x="3559629" y="25614084"/>
           <a:ext cx="1379221" cy="385354"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11513,15 +10689,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>87085</xdr:colOff>
+      <xdr:colOff>119742</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>10887</xdr:colOff>
+      <xdr:colOff>43544</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>97974</xdr:rowOff>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11554,7 +10730,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2525485" y="23143029"/>
+          <a:off x="2558142" y="23197457"/>
           <a:ext cx="1752602" cy="1752602"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11730,7 +10906,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>433209</xdr:colOff>
+      <xdr:colOff>10886</xdr:colOff>
       <xdr:row>179</xdr:row>
       <xdr:rowOff>45267</xdr:rowOff>
     </xdr:to>
@@ -11741,8 +10917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="113169" y="13509172"/>
-          <a:ext cx="10683240" cy="6337209"/>
+          <a:off x="113169" y="26833287"/>
+          <a:ext cx="10260917" cy="6337209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11794,7 +10970,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>10886</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -11805,8 +10981,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="13509171"/>
-          <a:ext cx="10683240" cy="631372"/>
+          <a:off x="106680" y="26833286"/>
+          <a:ext cx="10267406" cy="631371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12558,7 +11734,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>433209</xdr:colOff>
+      <xdr:colOff>10886</xdr:colOff>
       <xdr:row>216</xdr:row>
       <xdr:rowOff>45267</xdr:rowOff>
     </xdr:to>
@@ -12569,8 +11745,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="113169" y="26833287"/>
-          <a:ext cx="10683240" cy="6337209"/>
+          <a:off x="113169" y="33680401"/>
+          <a:ext cx="10260917" cy="6337209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12622,7 +11798,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>10886</xdr:colOff>
       <xdr:row>185</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -12633,8 +11809,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="26833286"/>
-          <a:ext cx="10683240" cy="631371"/>
+          <a:off x="106680" y="33680400"/>
+          <a:ext cx="10267406" cy="631371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13334,7 +12510,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>433209</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -13346,7 +12522,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="113169" y="179293"/>
-          <a:ext cx="10683240" cy="9475695"/>
+          <a:ext cx="10250031" cy="9475695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13398,7 +12574,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -13410,7 +12586,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="106680" y="179294"/>
-          <a:ext cx="10683240" cy="614082"/>
+          <a:ext cx="10256520" cy="614082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14031,8 +13207,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1465559" y="2054091"/>
-          <a:ext cx="7176416" cy="411400"/>
+          <a:off x="1457744" y="2123625"/>
+          <a:ext cx="7129523" cy="424042"/>
           <a:chOff x="1528312" y="2054090"/>
           <a:chExt cx="7176416" cy="411400"/>
         </a:xfrm>
@@ -14080,7 +13256,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="r"/>
-            <a:endParaRPr lang="en-US" sz="1800">
+            <a:endParaRPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="85000"/>
@@ -14195,8 +13371,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1429700" y="2627833"/>
-          <a:ext cx="3491924" cy="411400"/>
+          <a:off x="1421885" y="2716330"/>
+          <a:ext cx="3468477" cy="424043"/>
           <a:chOff x="1528312" y="2054090"/>
           <a:chExt cx="3438136" cy="411400"/>
         </a:xfrm>
@@ -14362,8 +13538,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1420735" y="3676704"/>
-          <a:ext cx="3500888" cy="411400"/>
+          <a:off x="1412920" y="3803130"/>
+          <a:ext cx="3477441" cy="424041"/>
           <a:chOff x="1528312" y="2054090"/>
           <a:chExt cx="3500888" cy="411400"/>
         </a:xfrm>
@@ -14615,13 +13791,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>327040</xdr:colOff>
+      <xdr:colOff>346580</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>54963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>125506</xdr:colOff>
+      <xdr:colOff>125508</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>107775</xdr:rowOff>
     </xdr:to>
@@ -14632,10 +13808,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2765440" y="4178728"/>
-          <a:ext cx="1017666" cy="411400"/>
-          <a:chOff x="1528312" y="2027195"/>
-          <a:chExt cx="1017666" cy="411400"/>
+          <a:off x="2769349" y="4324117"/>
+          <a:ext cx="990313" cy="424043"/>
+          <a:chOff x="1548002" y="2027195"/>
+          <a:chExt cx="997976" cy="411400"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -14722,7 +13898,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1528312" y="2065895"/>
+            <a:off x="1548002" y="2065895"/>
             <a:ext cx="515642" cy="349536"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -14792,13 +13968,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>156712</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>81858</xdr:rowOff>
+      <xdr:rowOff>62320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>134670</xdr:rowOff>
+      <xdr:rowOff>115132</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -14807,9 +13983,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3814312" y="4205623"/>
-          <a:ext cx="1098347" cy="411400"/>
-          <a:chOff x="1528312" y="2054090"/>
+          <a:off x="3790866" y="4331474"/>
+          <a:ext cx="1090531" cy="424043"/>
+          <a:chOff x="1528312" y="2035134"/>
           <a:chExt cx="1098347" cy="411400"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -14820,7 +13996,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2052918" y="2054090"/>
+            <a:off x="2052918" y="2035134"/>
             <a:ext cx="573741" cy="411400"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -14982,8 +14158,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1488141" y="5468471"/>
-          <a:ext cx="7203166" cy="1443316"/>
+          <a:off x="1480326" y="5658109"/>
+          <a:ext cx="7156273" cy="1493887"/>
           <a:chOff x="1447631" y="2608732"/>
           <a:chExt cx="7203166" cy="1443316"/>
         </a:xfrm>
@@ -15534,8 +14710,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1420735" y="3138821"/>
-          <a:ext cx="3500888" cy="411400"/>
+          <a:off x="1412920" y="3246283"/>
+          <a:ext cx="3477441" cy="424042"/>
           <a:chOff x="1528312" y="2054090"/>
           <a:chExt cx="3500888" cy="411400"/>
         </a:xfrm>
@@ -15732,8 +14908,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5150053" y="3147787"/>
-          <a:ext cx="3491924" cy="411400"/>
+          <a:off x="5118791" y="3255249"/>
+          <a:ext cx="3468478" cy="424042"/>
           <a:chOff x="1528312" y="2054090"/>
           <a:chExt cx="3438136" cy="411400"/>
         </a:xfrm>
@@ -15899,8 +15075,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5141088" y="2618869"/>
-          <a:ext cx="3500888" cy="411400"/>
+          <a:off x="5109826" y="2707366"/>
+          <a:ext cx="3477442" cy="424043"/>
           <a:chOff x="1528312" y="2054090"/>
           <a:chExt cx="3500888" cy="411400"/>
         </a:xfrm>
@@ -16097,8 +15273,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5150053" y="3685669"/>
-          <a:ext cx="3491924" cy="411400"/>
+          <a:off x="5118791" y="3812095"/>
+          <a:ext cx="3468478" cy="424041"/>
           <a:chOff x="1528312" y="2054090"/>
           <a:chExt cx="3438136" cy="411400"/>
         </a:xfrm>
@@ -16264,8 +15440,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5141088" y="4187692"/>
-          <a:ext cx="3500888" cy="411400"/>
+          <a:off x="5109826" y="4333081"/>
+          <a:ext cx="3477442" cy="424043"/>
           <a:chOff x="1528312" y="2054090"/>
           <a:chExt cx="3500888" cy="411400"/>
         </a:xfrm>
@@ -16365,7 +15541,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1528312" y="2065895"/>
+            <a:off x="1528312" y="2084851"/>
             <a:ext cx="1313500" cy="349536"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -16550,8 +15726,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1447630" y="4842115"/>
-          <a:ext cx="3456064" cy="411400"/>
+          <a:off x="1439815" y="5012789"/>
+          <a:ext cx="3432617" cy="424043"/>
           <a:chOff x="1528312" y="2054090"/>
           <a:chExt cx="3456064" cy="411400"/>
         </a:xfrm>
@@ -16766,8 +15942,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1497106" y="6992471"/>
-          <a:ext cx="7176417" cy="411400"/>
+          <a:off x="1489291" y="7239000"/>
+          <a:ext cx="7129524" cy="424043"/>
           <a:chOff x="1528312" y="2054090"/>
           <a:chExt cx="7176417" cy="411400"/>
         </a:xfrm>
@@ -16940,8 +16116,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1488142" y="7694558"/>
-          <a:ext cx="7198658" cy="1171535"/>
+          <a:off x="1480327" y="7960051"/>
+          <a:ext cx="7151765" cy="1215784"/>
           <a:chOff x="1528312" y="2065895"/>
           <a:chExt cx="7198658" cy="1171535"/>
         </a:xfrm>
@@ -17136,15 +16312,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>148815</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>156435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17153,8 +16329,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="99060" y="182880"/>
-          <a:ext cx="10683240" cy="9475695"/>
+          <a:off x="106680" y="190500"/>
+          <a:ext cx="10256520" cy="9475695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17200,15 +16376,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>549254</xdr:colOff>
+      <xdr:colOff>564494</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>82966</xdr:rowOff>
+      <xdr:rowOff>29626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>534165</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>115645</xdr:rowOff>
+      <xdr:colOff>549405</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>62305</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17217,7 +16393,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1158854" y="814486"/>
+          <a:off x="1174094" y="761146"/>
           <a:ext cx="7909711" cy="8810919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17269,7 +16445,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -17281,7 +16457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="106680" y="182880"/>
-          <a:ext cx="10683240" cy="624840"/>
+          <a:ext cx="10256520" cy="624840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17720,14 +16896,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17737,8 +16913,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409700" y="1356360"/>
-          <a:ext cx="7406640" cy="434340"/>
+          <a:off x="1280160" y="1356360"/>
+          <a:ext cx="7703820" cy="434340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17775,6 +16951,6307 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="1402080"/>
+          <a:ext cx="2529840" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>       Nội</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> dung việc cần tìm</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>402049</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440180" y="1485900"/>
+          <a:ext cx="181069" cy="181069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="1402080"/>
+          <a:ext cx="1882140" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Loại</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> việc               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="DD2C19"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:sym typeface="Webdings" panose="05030102010509060703" pitchFamily="18" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="DD2C19"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7795260" y="1402080"/>
+          <a:ext cx="1150620" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ABDC0E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Tìm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> kiếm</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3970020" y="1440180"/>
+          <a:ext cx="297180" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5852160" y="1402080"/>
+          <a:ext cx="1882140" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Địa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> điểm               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="DD2C19"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:sym typeface="Webdings" panose="05030102010509060703" pitchFamily="18" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="DD2C19"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449581</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23907</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5935981" y="1440180"/>
+          <a:ext cx="183926" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>159036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1821180"/>
+          <a:ext cx="1760220" cy="349536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tìm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> kiếm nâng cao</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6728460" y="1798320"/>
+          <a:ext cx="2400300" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Sắp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> xếp theo     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="DD2C19"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Gần tôi nhất</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="DD2C19"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:sym typeface="Webdings" panose="05030102010509060703" pitchFamily="18" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="DD2C19"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="Group 40"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1272540" y="2072640"/>
+          <a:ext cx="5394960" cy="1219200"/>
+          <a:chOff x="1272540" y="2255520"/>
+          <a:chExt cx="5394960" cy="1219200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Rectangle 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1272540" y="2255520"/>
+            <a:ext cx="5394960" cy="1188720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FEF5F4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="33" name="Group 32"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1291590" y="2263140"/>
+            <a:ext cx="1043940" cy="1211580"/>
+            <a:chOff x="1283970" y="2263140"/>
+            <a:chExt cx="1043940" cy="1211580"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="Rectangle 25"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1283970" y="2263140"/>
+              <a:ext cx="1043940" cy="1165860"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Picture 26"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+              <a:lum bright="70000" contrast="-70000"/>
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId8">
+                      <a14:imgEffect>
+                        <a14:colorTemperature colorTemp="8790"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1443990" y="2343150"/>
+              <a:ext cx="693420" cy="693420"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="63500" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="22000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="contrasting" dir="t">
+                <a:rot lat="0" lon="0" rev="3000000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d contourW="7620">
+              <a:bevelT w="95250" h="31750"/>
+              <a:contourClr>
+                <a:srgbClr val="333333"/>
+              </a:contourClr>
+            </a:sp3d>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Picture 28"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1463040" y="3078481"/>
+              <a:ext cx="662940" cy="111854"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="Rectangle 29"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1409700" y="3131820"/>
+              <a:ext cx="754380" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Uy tín:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> 90</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="40" name="Group 39"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2346960" y="2354580"/>
+            <a:ext cx="4251960" cy="1005840"/>
+            <a:chOff x="2346960" y="2354580"/>
+            <a:chExt cx="4251960" cy="1005840"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="Rectangle 30"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2346960" y="2362200"/>
+              <a:ext cx="3665220" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Phục</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> vụ bưng bê quán cơm</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="Rectangle 31"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2636520" y="2735580"/>
+              <a:ext cx="1584960" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Hà</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> Nội, Việt Nam</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="Rectangle 33"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2636520" y="3002280"/>
+              <a:ext cx="1744980" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>10/06/2019  08:00</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5204460" y="2354580"/>
+              <a:ext cx="1348740" cy="365760"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>100,000 VND</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="36" name="Picture 35"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2453640" y="2804160"/>
+              <a:ext cx="144780" cy="197940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="37" name="Picture 36"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2461260" y="3093720"/>
+              <a:ext cx="182880" cy="182880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="Picture 37"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5867400" y="3108960"/>
+              <a:ext cx="228600" cy="144142"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="Rectangle 38"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6080760" y="3017520"/>
+              <a:ext cx="518160" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>236</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="Group 41"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1272540" y="3278505"/>
+          <a:ext cx="5394960" cy="1219200"/>
+          <a:chOff x="1272540" y="2255520"/>
+          <a:chExt cx="5394960" cy="1219200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="Rectangle 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1272540" y="2255520"/>
+            <a:ext cx="5394960" cy="1188720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FEF5F4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="44" name="Group 43"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1291590" y="2263140"/>
+            <a:ext cx="1043940" cy="1211580"/>
+            <a:chOff x="1283970" y="2263140"/>
+            <a:chExt cx="1043940" cy="1211580"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="Rectangle 53"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1283970" y="2263140"/>
+              <a:ext cx="1043940" cy="1165860"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="55" name="Picture 54"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+              <a:lum bright="70000" contrast="-70000"/>
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId8">
+                      <a14:imgEffect>
+                        <a14:colorTemperature colorTemp="8790"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1443990" y="2343150"/>
+              <a:ext cx="693420" cy="693420"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="63500" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="22000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="contrasting" dir="t">
+                <a:rot lat="0" lon="0" rev="3000000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d contourW="7620">
+              <a:bevelT w="95250" h="31750"/>
+              <a:contourClr>
+                <a:srgbClr val="333333"/>
+              </a:contourClr>
+            </a:sp3d>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="56" name="Picture 55"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1463040" y="3078481"/>
+              <a:ext cx="662940" cy="111854"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="Rectangle 56"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1409700" y="3131820"/>
+              <a:ext cx="754380" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Uy tín:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> 90</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="45" name="Group 44"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2346960" y="2354580"/>
+            <a:ext cx="4251960" cy="1005840"/>
+            <a:chOff x="2346960" y="2354580"/>
+            <a:chExt cx="4251960" cy="1005840"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="Rectangle 45"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2346960" y="2362200"/>
+              <a:ext cx="3665220" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Bốc</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> dỡ hàng</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="Rectangle 46"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2636520" y="2735580"/>
+              <a:ext cx="1584960" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Hà</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> Nội, Việt Nam</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="Rectangle 47"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2636520" y="3002280"/>
+              <a:ext cx="1744980" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>10/06/2019  08:00</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="Rounded Rectangle 48"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5204460" y="2354580"/>
+              <a:ext cx="1348740" cy="365760"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>100,000 VND</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="50" name="Picture 49"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2453640" y="2804160"/>
+              <a:ext cx="144780" cy="197940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="51" name="Picture 50"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2461260" y="3093720"/>
+              <a:ext cx="182880" cy="182880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="52" name="Picture 51"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5867400" y="3108960"/>
+              <a:ext cx="228600" cy="144142"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="Rectangle 52"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6080760" y="3017520"/>
+              <a:ext cx="518160" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>200</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="58" name="Group 57"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1272540" y="4484370"/>
+          <a:ext cx="5394960" cy="1219200"/>
+          <a:chOff x="1272540" y="2255520"/>
+          <a:chExt cx="5394960" cy="1219200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="Rectangle 58"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1272540" y="2255520"/>
+            <a:ext cx="5394960" cy="1188720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FEF5F4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="60" name="Group 59"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1291590" y="2263140"/>
+            <a:ext cx="1043940" cy="1211580"/>
+            <a:chOff x="1283970" y="2263140"/>
+            <a:chExt cx="1043940" cy="1211580"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="Rectangle 69"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1283970" y="2263140"/>
+              <a:ext cx="1043940" cy="1165860"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="71" name="Picture 70"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+              <a:lum bright="70000" contrast="-70000"/>
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId8">
+                      <a14:imgEffect>
+                        <a14:colorTemperature colorTemp="8790"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1443990" y="2343150"/>
+              <a:ext cx="693420" cy="693420"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="63500" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="22000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="contrasting" dir="t">
+                <a:rot lat="0" lon="0" rev="3000000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d contourW="7620">
+              <a:bevelT w="95250" h="31750"/>
+              <a:contourClr>
+                <a:srgbClr val="333333"/>
+              </a:contourClr>
+            </a:sp3d>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="72" name="Picture 71"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1463040" y="3078481"/>
+              <a:ext cx="662940" cy="111854"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="73" name="Rectangle 72"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1409700" y="3131820"/>
+              <a:ext cx="754380" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Uy tín:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> 90</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="61" name="Group 60"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2346960" y="2354580"/>
+            <a:ext cx="4251960" cy="1005840"/>
+            <a:chOff x="2346960" y="2354580"/>
+            <a:chExt cx="4251960" cy="1005840"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="62" name="Rectangle 61"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2346960" y="2362200"/>
+              <a:ext cx="3665220" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Vẫn</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> chuyển hàng hóa - shipper</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="Rectangle 62"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2636520" y="2735580"/>
+              <a:ext cx="1584960" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Hà</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> Nội, Việt Nam</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="Rectangle 63"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2636520" y="3002280"/>
+              <a:ext cx="1744980" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>10/06/2019  08:00</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="Rounded Rectangle 64"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5204460" y="2354580"/>
+              <a:ext cx="1348740" cy="365760"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>100,000 VND</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="66" name="Picture 65"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2453640" y="2804160"/>
+              <a:ext cx="144780" cy="197940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="67" name="Picture 66"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2461260" y="3093720"/>
+              <a:ext cx="182880" cy="182880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="68" name="Picture 67"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5867400" y="3108960"/>
+              <a:ext cx="228600" cy="144142"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="Rectangle 68"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6080760" y="3017520"/>
+              <a:ext cx="518160" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>128</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="74" name="Group 73"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1272540" y="5690235"/>
+          <a:ext cx="5394960" cy="1219200"/>
+          <a:chOff x="1272540" y="2255520"/>
+          <a:chExt cx="5394960" cy="1219200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="Rectangle 74"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1272540" y="2255520"/>
+            <a:ext cx="5394960" cy="1188720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FEF5F4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="76" name="Group 75"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1291590" y="2263140"/>
+            <a:ext cx="1043940" cy="1211580"/>
+            <a:chOff x="1283970" y="2263140"/>
+            <a:chExt cx="1043940" cy="1211580"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="86" name="Rectangle 85"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1283970" y="2263140"/>
+              <a:ext cx="1043940" cy="1165860"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="87" name="Picture 86"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+              <a:lum bright="70000" contrast="-70000"/>
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId8">
+                      <a14:imgEffect>
+                        <a14:colorTemperature colorTemp="8790"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1443990" y="2343150"/>
+              <a:ext cx="693420" cy="693420"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="63500" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="22000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="contrasting" dir="t">
+                <a:rot lat="0" lon="0" rev="3000000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d contourW="7620">
+              <a:bevelT w="95250" h="31750"/>
+              <a:contourClr>
+                <a:srgbClr val="333333"/>
+              </a:contourClr>
+            </a:sp3d>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="88" name="Picture 87"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1463040" y="3078481"/>
+              <a:ext cx="662940" cy="111854"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="89" name="Rectangle 88"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1409700" y="3131820"/>
+              <a:ext cx="754380" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Uy tín:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> 90</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="77" name="Group 76"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2346960" y="2354580"/>
+            <a:ext cx="4251960" cy="1005840"/>
+            <a:chOff x="2346960" y="2354580"/>
+            <a:chExt cx="4251960" cy="1005840"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="78" name="Rectangle 77"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2346960" y="2362200"/>
+              <a:ext cx="3665220" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Phát</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> tờ rơi cổng trường ĐH</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="79" name="Rectangle 78"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2636520" y="2735580"/>
+              <a:ext cx="1584960" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Hà</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> Nội, Việt Nam</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="Rectangle 79"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2636520" y="3002280"/>
+              <a:ext cx="1744980" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>10/06/2019  08:00</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="Rounded Rectangle 80"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5204460" y="2354580"/>
+              <a:ext cx="1348740" cy="365760"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>100,000 VND</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="82" name="Picture 81"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2453640" y="2804160"/>
+              <a:ext cx="144780" cy="197940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="Picture 82"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2461260" y="3093720"/>
+              <a:ext cx="182880" cy="182880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="84" name="Picture 83"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5867400" y="3108960"/>
+              <a:ext cx="228600" cy="144142"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="85" name="Rectangle 84"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6080760" y="3017520"/>
+              <a:ext cx="518160" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>128</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="106" name="Group 105"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1272540" y="6896100"/>
+          <a:ext cx="5394960" cy="1219200"/>
+          <a:chOff x="1272540" y="2255520"/>
+          <a:chExt cx="5394960" cy="1219200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="Rectangle 106"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1272540" y="2255520"/>
+            <a:ext cx="5394960" cy="1188720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FEF5F4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="108" name="Group 107"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1291590" y="2263140"/>
+            <a:ext cx="1043940" cy="1211580"/>
+            <a:chOff x="1283970" y="2263140"/>
+            <a:chExt cx="1043940" cy="1211580"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="118" name="Rectangle 117"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1283970" y="2263140"/>
+              <a:ext cx="1043940" cy="1165860"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="119" name="Picture 118"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+              <a:lum bright="70000" contrast="-70000"/>
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId8">
+                      <a14:imgEffect>
+                        <a14:colorTemperature colorTemp="8790"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1443990" y="2343150"/>
+              <a:ext cx="693420" cy="693420"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="63500" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="22000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="contrasting" dir="t">
+                <a:rot lat="0" lon="0" rev="3000000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d contourW="7620">
+              <a:bevelT w="95250" h="31750"/>
+              <a:contourClr>
+                <a:srgbClr val="333333"/>
+              </a:contourClr>
+            </a:sp3d>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="120" name="Picture 119"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1463040" y="3078481"/>
+              <a:ext cx="662940" cy="111854"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="121" name="Rectangle 120"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1409700" y="3131820"/>
+              <a:ext cx="754380" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Uy tín:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> 90</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="109" name="Group 108"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2346960" y="2354580"/>
+            <a:ext cx="4282440" cy="1021080"/>
+            <a:chOff x="2346960" y="2354580"/>
+            <a:chExt cx="4282440" cy="1021080"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="110" name="Rectangle 109"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2346960" y="2362200"/>
+              <a:ext cx="3665220" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Phục</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> vụ bưng bê quán cơm</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="111" name="Rectangle 110"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2644140" y="2766060"/>
+              <a:ext cx="1584960" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Hà</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> Nội, Việt Nam</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="112" name="Rectangle 111"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2644140" y="3032760"/>
+              <a:ext cx="1744980" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>10/06/2019  08:00</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113" name="Rounded Rectangle 112"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5204460" y="2354580"/>
+              <a:ext cx="1348740" cy="365760"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>100,000 VND</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="114" name="Picture 113"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2461260" y="2834640"/>
+              <a:ext cx="144780" cy="197940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="115" name="Picture 114"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2468880" y="3124200"/>
+              <a:ext cx="182880" cy="182880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="116" name="Picture 115"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5897880" y="3116580"/>
+              <a:ext cx="228600" cy="144142"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="117" name="Rectangle 116"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6111240" y="3025140"/>
+              <a:ext cx="518160" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>128</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="Rectangle 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1287780" y="8397240"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F4A39A"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>&lt;&lt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="Rectangle 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1684020" y="8397240"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F4A39A"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="Rectangle 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2080260" y="8397240"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EA5143"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Rectangle 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="8397240"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F4A39A"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="Rectangle 125"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2872740" y="8397240"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F4A39A"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Rectangle 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6736080" y="2080260"/>
+          <a:ext cx="2225040" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>34904</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="Rectangle 127"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6740504" y="2083216"/>
+          <a:ext cx="2220616" cy="458054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Việc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> đã xem</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>606404</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>170596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147736</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="134" name="Group 133"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6702404" y="2548036"/>
+          <a:ext cx="2312056" cy="342900"/>
+          <a:chOff x="6702404" y="2548036"/>
+          <a:chExt cx="2312056" cy="342900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="Rectangle 128"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6702404" y="2548036"/>
+            <a:ext cx="1161436" cy="339944"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Lau</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t> dọn nhà mới</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="130" name="Rectangle 129"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8138160" y="2548036"/>
+            <a:ext cx="876300" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>08:00 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>10/06  </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="133" name="Straight Connector 132"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6797040" y="2887980"/>
+            <a:ext cx="2103120" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>606404</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>155356</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="135" name="Group 134"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6702404" y="2921416"/>
+          <a:ext cx="2312056" cy="342900"/>
+          <a:chOff x="6702404" y="2548036"/>
+          <a:chExt cx="2312056" cy="342900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="136" name="Rectangle 135"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6702404" y="2548036"/>
+            <a:ext cx="1161436" cy="339944"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Lau</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t> dọn nhà mới</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="Rectangle 136"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8138160" y="2548036"/>
+            <a:ext cx="876300" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>08:00 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>10/06  </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="138" name="Straight Connector 137"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6797040" y="2887980"/>
+            <a:ext cx="2103120" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>606404</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>178216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155356</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="139" name="Group 138"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6702404" y="3287176"/>
+          <a:ext cx="2312056" cy="342900"/>
+          <a:chOff x="6702404" y="2548036"/>
+          <a:chExt cx="2312056" cy="342900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="Rectangle 139"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6702404" y="2548036"/>
+            <a:ext cx="1161436" cy="339944"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Lau</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t> dọn nhà mới</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="141" name="Rectangle 140"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8138160" y="2548036"/>
+            <a:ext cx="876300" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>08:00 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>10/06  </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="142" name="Straight Connector 141"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6797040" y="2887980"/>
+            <a:ext cx="2103120" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4424</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>178216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155356</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="143" name="Group 142"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6710024" y="3652936"/>
+          <a:ext cx="2312056" cy="342900"/>
+          <a:chOff x="6702404" y="2548036"/>
+          <a:chExt cx="2312056" cy="342900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="144" name="Rectangle 143"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6702404" y="2548036"/>
+            <a:ext cx="1656736" cy="339944"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Lau</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t> dọn nhà mới, vệ ...</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="145" name="Rectangle 144"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8138160" y="2548036"/>
+            <a:ext cx="876300" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>08:00 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>10/06  </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="146" name="Straight Connector 145"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6797040" y="2887980"/>
+            <a:ext cx="2103120" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12044</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>178216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>155356</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="147" name="Group 146"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6717644" y="4018696"/>
+          <a:ext cx="2312056" cy="342900"/>
+          <a:chOff x="6702404" y="2548036"/>
+          <a:chExt cx="2312056" cy="342900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="Rectangle 147"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6702404" y="2548036"/>
+            <a:ext cx="1504336" cy="339944"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Nấu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t> nướng, trông trẻ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="149" name="Rectangle 148"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8138160" y="2548036"/>
+            <a:ext cx="876300" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>08:00 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>10/06  </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>148815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106680" y="182880"/>
+          <a:ext cx="10256520" cy="9292815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564494</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>549405</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1174094" y="753526"/>
+          <a:ext cx="7909711" cy="8628039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ĐĂ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106680" y="182880"/>
+          <a:ext cx="10256520" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E54F40"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225040" y="304800"/>
+          <a:ext cx="1348740" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F0877C"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Đăng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> việc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3756660" y="312420"/>
+          <a:ext cx="1348740" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DD2C19"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Tìm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> việc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63201</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>131781</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>136712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6768801" y="354106"/>
+          <a:ext cx="1287780" cy="331246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hỗ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> trợ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>363070</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>286870</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8287870" y="350520"/>
+          <a:ext cx="1143000" cy="331246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Anonymous</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26896</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>376520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:lum bright="70000" contrast="-70000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="8790"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7951696" y="308386"/>
+          <a:ext cx="349624" cy="356796"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500" cap="rnd">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="22000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="3000000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="7620">
+          <a:bevelT w="95250" h="31750"/>
+          <a:contourClr>
+            <a:srgbClr val="333333"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="343458"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18045,8 +23522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="101" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V61" sqref="V61"/>
+    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18060,8 +23537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U90" sqref="U90"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18075,8 +23552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView topLeftCell="A14" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18088,10 +23565,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="R19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="19" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
